--- a/cluster/data test/dist-change-homer-ampar-LTD-2.xlsx
+++ b/cluster/data test/dist-change-homer-ampar-LTD-2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andre\Data\2017\LTD\20171103\cell2\analysis\cluster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Andre\Data\2017\LTD\20171103\cell2\analysis\cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,1053 +335,1443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B130"/>
+      <selection sqref="A1:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>106.34493078473484</v>
       </c>
       <c r="B1">
         <v>4258.2167493780189</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>163.39812049535757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>528.84569006037725</v>
       </c>
       <c r="B2">
         <v>485.54776380779361</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>113.64301007509459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1365.7293653166103</v>
       </c>
       <c r="B3">
         <v>170.12866271439083</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>97.929075344968666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1052.2305461035453</v>
       </c>
       <c r="B4">
         <v>1816.2425621432233</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>185.53917713005595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>77.957480665961242</v>
       </c>
       <c r="B5">
         <v>1671.5508908208787</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>223.04359622339996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1140.614174048321</v>
       </c>
       <c r="B6">
         <v>2727.4705146057972</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>102.10710368504223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1759.1751051043566</v>
       </c>
       <c r="B7">
         <v>5288.2466437930752</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>133.13546418802528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2579.8106692898077</v>
       </c>
       <c r="B8">
         <v>2778.9887955430609</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>98.721247502085589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>494.49430733361964</v>
       </c>
       <c r="B9">
         <v>3567.1459420341166</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>242.25549944908607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5179.5456588097186</v>
       </c>
       <c r="B10">
         <v>266.3760694368429</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>100.04928762589121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>491.89131506690774</v>
       </c>
       <c r="B11">
         <v>4901.6431827192418</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>77.756570607641706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>174.64177854189668</v>
       </c>
       <c r="B12">
         <v>3722.9121322150809</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>119.15939193849388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1125.0429301691149</v>
       </c>
       <c r="B13">
         <v>2553.8810329141975</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>104.3105206810127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>522.51028184267045</v>
       </c>
       <c r="B14">
         <v>2340.0584643695029</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>116.61345744789864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2108.5914598034969</v>
       </c>
       <c r="B15">
         <v>1344.132861037544</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>141.48552212844086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>341.14316559203741</v>
       </c>
       <c r="B16">
         <v>470.53258463413044</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>126.68190206317034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>175.21122806799954</v>
       </c>
       <c r="B17">
         <v>4435.3588743703804</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>91.638499032668705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>87.602239455038699</v>
       </c>
       <c r="B18">
         <v>5621.1163994419258</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>106.53330596501397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>241.62775595654227</v>
       </c>
       <c r="B19">
         <v>330.12531826763376</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>220.41997285351985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>309.15746167934429</v>
       </c>
       <c r="B20">
         <v>2905.452687752811</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>176.14630766950495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>122.53836292017145</v>
       </c>
       <c r="B21">
         <v>2837.9023177164454</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>96.657371834026819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>290.94963179300856</v>
       </c>
       <c r="B22">
         <v>2984.7204159066928</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>189.92953062849389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>756.26480195063607</v>
       </c>
       <c r="B23">
         <v>3771.2112790868082</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>230.14295970326026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2162.7075606553267</v>
       </c>
       <c r="B24">
         <v>307.89562397493063</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>157.54134482447282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5627.7620476773327</v>
       </c>
       <c r="B25">
         <v>764.29484628207092</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1460.7446677249509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1761.1197887704152</v>
       </c>
       <c r="B26">
         <v>3168.4239351651936</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>97.934745905982894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>260.047520064281</v>
       </c>
       <c r="B27">
         <v>729.53847108549212</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>173.63950370296635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>718.34940042817379</v>
       </c>
       <c r="B28">
         <v>268.56513324303847</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>119.55789893025417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>182.54861405936401</v>
       </c>
       <c r="B29">
         <v>2008.6763271077923</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>117.10561299921895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2705.2257564010156</v>
       </c>
       <c r="B30">
         <v>379.3536163979299</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>295.01976393907955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1229.6632687033659</v>
       </c>
       <c r="B31">
         <v>506.9918442238087</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>143.69207087426759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>275.43259731347359</v>
       </c>
       <c r="B32">
         <v>637.94731486128001</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>136.84060763261104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>537.14920131216684</v>
       </c>
       <c r="B33">
         <v>5598.3118434573098</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>166.24919124075396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2497.6411244392029</v>
       </c>
       <c r="B34">
         <v>400.24574969242406</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>54.499642211747499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1127.9243769727823</v>
       </c>
       <c r="B35">
         <v>2771.1437230517304</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>126.09551966095127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>210.89415583083857</v>
       </c>
       <c r="B36">
         <v>2667.6239266128132</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>140.96391287766096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1646.9178337746951</v>
       </c>
       <c r="B37">
         <v>1415.2171081341482</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>91.642220900865624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>148.36736136720239</v>
       </c>
       <c r="B38">
         <v>54.204945526713125</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>104.63485547718095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>513.13721024349536</v>
       </c>
       <c r="B39">
         <v>182.27535889077984</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>103.97601032184438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5801.4059366963729</v>
       </c>
       <c r="B40">
         <v>3332.6241586562219</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>147.16795837919736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>383.39944549369875</v>
       </c>
       <c r="B41">
         <v>1852.7568403358382</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>88.166444974668252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2456.6263922806465</v>
       </c>
       <c r="B42">
         <v>4244.7794268797334</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>176.62797127441397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>68.337426572687448</v>
       </c>
       <c r="B43">
         <v>1929.2831165899488</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>117.24847142803679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1011.5765047663893</v>
       </c>
       <c r="B44">
         <v>2291.2278428372106</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>196.84478839292458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3794.7813142598698</v>
       </c>
       <c r="B45">
         <v>1702.0295834017384</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>183.40380084754372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3243.2055308634408</v>
       </c>
       <c r="B46">
         <v>1221.0177447921214</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>132.29104547289614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055.4837096403635</v>
       </c>
       <c r="B47">
         <v>2459.9789677631375</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>165.11028588707956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1295.1032696543023</v>
       </c>
       <c r="B48">
         <v>3432.719384953502</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>100.55542118659319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>121.62703262209848</v>
       </c>
       <c r="B49">
         <v>10234.592514310667</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>139.61492616903348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2604.6603816002589</v>
       </c>
       <c r="B50">
         <v>2809.3250646026495</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>53.22829930667946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>159.0724871547279</v>
       </c>
       <c r="B51">
         <v>2000.7609522527262</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>147.60784681654604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>431.33187309345124</v>
       </c>
       <c r="B52">
         <v>2317.2917887510444</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>272.87232008598306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2763.3997955399573</v>
       </c>
       <c r="B53">
         <v>5001.1596495276817</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>50.014399280365168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1104.1763470240508</v>
       </c>
       <c r="B54">
         <v>3060.6895624985332</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>221.65436276573558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>837.11885684506581</v>
       </c>
       <c r="B55">
         <v>1305.9677467726947</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>205.5374893221356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>266.10795133183711</v>
       </c>
       <c r="B56">
         <v>1737.4502003082807</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>240.98227821766955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4143.3246040078639</v>
       </c>
       <c r="B57">
         <v>4375.3926877923468</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>396.1817526947487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3062.7848844984687</v>
       </c>
       <c r="B58">
         <v>361.41817598561084</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>284.6517480850369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2855.3101892544601</v>
       </c>
       <c r="B59">
         <v>2594.9145340302748</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>76.883465015268015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4828.8356854949197</v>
       </c>
       <c r="B60">
         <v>3203.0182969567309</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>110.6117017211043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2794.7469187193146</v>
       </c>
       <c r="B61">
         <v>1325.210826477522</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>2727.9854141250898</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1391.2122680086618</v>
       </c>
       <c r="B62">
         <v>1296.8217167162513</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>77.00448135289227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1526.4611613230363</v>
       </c>
       <c r="B63">
         <v>1409.1070554337734</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>380.61763131217123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1257.9454175848914</v>
       </c>
       <c r="B64">
         <v>1570.1713001170635</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>224.17614979095833</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>182.54861405936401</v>
       </c>
       <c r="B65">
         <v>281.79230271143109</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>2089.0744260041602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1006.2422240250877</v>
       </c>
       <c r="B66">
         <v>1113.7127047017821</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>81.403411717701061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>242.73263927208541</v>
       </c>
       <c r="B67">
         <v>211.55816575603242</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>137.37020444456704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>201.07409440020947</v>
       </c>
       <c r="B68">
         <v>667.41126726937875</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>233.66413427508297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1759.1751051043566</v>
       </c>
       <c r="B69">
         <v>3194.322550319021</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>2213.8685081065209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2385.3137054857839</v>
       </c>
       <c r="B70">
         <v>3192.2748128119479</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>315.07964180909289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>100.77840169046078</v>
       </c>
       <c r="B71">
         <v>3305.6666768312475</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>238.2387465893319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1568.0013973282212</v>
       </c>
       <c r="B72">
         <v>4087.7643927861527</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>134.35964729947548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1395.5898250424825</v>
       </c>
       <c r="B73">
         <v>4397.4850210344694</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>194.50145239405569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>130.73922517058745</v>
       </c>
       <c r="B74">
         <v>151.35187862929445</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>178.3501141897091</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1755.2362830737306</v>
       </c>
       <c r="B75">
         <v>96.330350385924447</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>151.25718002501259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1618.058536826469</v>
       </c>
       <c r="B76">
         <v>3027.3250093940319</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>140.36729821460222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2823.1636883829547</v>
       </c>
       <c r="B77">
         <v>2414.4893492411106</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>142.31975134282339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2802.5952951435866</v>
       </c>
       <c r="B78">
         <v>5343.4650777005536</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>132.06240841058394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>214.6416253883848</v>
       </c>
       <c r="B79">
         <v>3644.9081457223715</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>105.42815257164159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2195.9158681531653</v>
       </c>
       <c r="B80">
         <v>2170.5162457274664</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>78.655794030849549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3330.4189078926124</v>
       </c>
       <c r="B81">
         <v>468.11433653175573</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>113.97285499166284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2723.7747677214152</v>
       </c>
       <c r="B82">
         <v>1693.0771399404034</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>584.86531176000585</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10474.342789725126</v>
       </c>
       <c r="B83">
         <v>9888.541080627132</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>115.72023873864457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4362.9589301981059</v>
       </c>
       <c r="B84">
         <v>10146.761180069556</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>578.73060743293877</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1286.742799796401</v>
       </c>
       <c r="B85">
         <v>96.137367088149276</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>157.03139280279893</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3243.2055308634408</v>
       </c>
       <c r="B86">
         <v>174.41423253237062</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>1254.6978169566214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>44.878671439309258</v>
       </c>
       <c r="B87">
         <v>135.63233167495275</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>124.34354391937207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>419.27099098618373</v>
       </c>
       <c r="B88">
         <v>2953.4663008376469</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>407.23133760102667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5728.6326092357376</v>
       </c>
       <c r="B89">
         <v>229.07563408037603</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>114.07885355588287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>479.20213770161143</v>
       </c>
       <c r="B90">
         <v>1632.4310871215303</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>162.43633494022296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>321.87982244009186</v>
       </c>
       <c r="B91">
         <v>4775.9383124736969</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>2171.4142387008965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>255.92297242271141</v>
       </c>
       <c r="B92">
         <v>4585.5354202290946</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>53.767290564453553</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>283.54675343651121</v>
       </c>
       <c r="B93">
         <v>2177.9085000920463</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>271.24448593892879</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1851.5344818095091</v>
       </c>
       <c r="B94">
         <v>3738.2975281101394</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>135.25824351992276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2442.6105232436644</v>
       </c>
       <c r="B95">
         <v>4193.4771970921556</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>154.97896572186949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9702.5574373619947</v>
       </c>
       <c r="B96">
         <v>9491.0846722705774</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>94.633284596474937</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2074.8580683707919</v>
       </c>
       <c r="B97">
         <v>2647.7198653591181</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>204.42347101122388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>708.03251749130277</v>
       </c>
       <c r="B98">
         <v>531.26545672796681</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>104.00657227897257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1188.292863173172</v>
       </c>
       <c r="B99">
         <v>1704.63437179784</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>172.65810481400294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1413.3694007064985</v>
       </c>
       <c r="B100">
         <v>4533.2316342100621</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>342.43462938607354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2162.087336762871</v>
       </c>
       <c r="B101">
         <v>3272.4757605675791</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>100.54579614279638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>234.12558222018515</v>
       </c>
       <c r="B102">
         <v>3434.9241209555807</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>95.492835142665655</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4418.1181063362965</v>
       </c>
       <c r="B103">
         <v>400.01080876935174</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>2027.6293296786414</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3756.0149141435672</v>
       </c>
       <c r="B104">
         <v>315.14022068199955</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>122.49322747472851</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2345.258844349527</v>
       </c>
       <c r="B105">
         <v>199.03278860771863</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>166.12175825450606</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>330.36999392583994</v>
       </c>
       <c r="B106">
         <v>2806.1527750848654</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>181.29499269144551</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>217.78300180009271</v>
       </c>
       <c r="B107">
         <v>3055.347461242879</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>148.91426114953126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2111.4962206040423</v>
       </c>
       <c r="B108">
         <v>463.04510342432644</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>169.83169457456239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3247.5780011919742</v>
       </c>
       <c r="B109">
         <v>1822.8889489486576</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>142.69973164995616</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>172.26407011475558</v>
       </c>
       <c r="B110">
         <v>113.40515145436027</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>98.280454743237385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>204.15615066813314</v>
       </c>
       <c r="B111">
         <v>830.75000795404685</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>136.03500750147219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>132.5847921507505</v>
       </c>
       <c r="B112">
         <v>2654.0966441527676</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>45.286356503610747</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>94.141697350638353</v>
       </c>
       <c r="B113">
         <v>7090.6974345274721</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>96.031100385321963</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5664.8605255394659</v>
       </c>
       <c r="B114">
         <v>3861.5098913490096</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>107.89944934403496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4328.5992649361497</v>
       </c>
       <c r="B115">
         <v>2923.2584622654149</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>119.4410720548442</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3842.1502056202712</v>
       </c>
       <c r="B116">
         <v>5249.595703341949</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>2251.5715585009516</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1647.1282440019008</v>
       </c>
       <c r="B117">
         <v>1144.0429531015698</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>195.3059099199686</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2648.3077480231086</v>
       </c>
       <c r="B118">
         <v>2384.776912814551</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>150.20487045075834</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>272.41253442959248</v>
       </c>
       <c r="B119">
         <v>6498.5930063535207</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>149.27125947502617</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>106.34493078473484</v>
       </c>
       <c r="B120">
         <v>5239.2286997733509</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>2787.4422799839631</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4999.2948772364452</v>
       </c>
       <c r="B121">
         <v>5046.1736119659363</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>65.349727347331765</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>158.86095788553536</v>
       </c>
       <c r="B122">
         <v>158.48825301753899</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>29.589352830522198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5763.1692277811362</v>
       </c>
       <c r="B123">
         <v>5752.8473751353031</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>237.98145054763071</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1423.9927642225316</v>
       </c>
       <c r="B124">
         <v>1528.0471788376747</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>122.44026347213375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1994.3675922469031</v>
       </c>
       <c r="B125">
         <v>4062.2173479884823</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>177.28276940665717</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2070.9617308875559</v>
       </c>
       <c r="B126">
         <v>782.19937066756529</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>97.589304475983454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>351.43978155756628</v>
       </c>
       <c r="B127">
         <v>5788.2431100809408</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>148.29105205743198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1503.4184224773373</v>
       </c>
       <c r="B128">
         <v>5041.1250918993046</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>96.663876737281527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2404.5881023616212</v>
       </c>
       <c r="B129">
         <v>2541.2656390076636</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>98.562628703798552</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>537.97863639336845</v>
       </c>
       <c r="B130">
         <v>4059.393649582224</v>
+      </c>
+      <c r="C130">
+        <v>82.885764053107636</v>
       </c>
     </row>
   </sheetData>
